--- a/SourceCode/2024/Basics-April2024/Jeevan/Task22/LowerCases.xlsx
+++ b/SourceCode/2024/Basics-April2024/Jeevan/Task22/LowerCases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeeva\Documents\GitHub\RPA-Developer-in-30-Days\SourceCode\2024\Basics-April2024\Jeevan\Task20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeeva\Documents\GitHub\RPA-Developer-in-30-Days\SourceCode\2024\Basics-April2024\Jeevan\Task22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100F76DB-6307-4EB6-9B1B-5781E5DB8EE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE4C0B6-BEB6-4F2B-84AF-BB82A736812B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>lowercases</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t>sammeta</t>
+  </si>
+  <si>
+    <t>uppercases</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>pandey</t>
   </si>
 </sst>
 </file>
@@ -354,32 +363,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
